--- a/medicine/Pharmacie/Asunaprévir/Asunaprévir.xlsx
+++ b/medicine/Pharmacie/Asunaprévir/Asunaprévir.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Asunapr%C3%A9vir</t>
+          <t>Asunaprévir</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'asunaprévir (nom de  code BMS-650032) est un principe actif en expérimentation pour le traitement de l'hépatite C.
-Il a été développé par la compagnie pharmaceutique Bristol-Myers Squibb et se trouve actuellement en essai clinique de phase III[2].
+Il a été développé par la compagnie pharmaceutique Bristol-Myers Squibb et se trouve actuellement en essai clinique de phase III.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Asunapr%C3%A9vir</t>
+          <t>Asunaprévir</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,10 +525,12 @@
           <t>Mode d'action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'asunaprévir est un inhibiteur de la protéase virale NS3 du virus de l'hépatite C[3].
-Il a été testé en association avec l'interféron pégylé et la ribavirine ainsi que dans des protocoles sans interféron mais avec d'autres agents antiviraux à action directe dont le daclatasvir[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'asunaprévir est un inhibiteur de la protéase virale NS3 du virus de l'hépatite C.
+Il a été testé en association avec l'interféron pégylé et la ribavirine ainsi que dans des protocoles sans interféron mais avec d'autres agents antiviraux à action directe dont le daclatasvir.
 </t>
         </is>
       </c>
